--- a/server/data/datawithbiolabels.xlsx
+++ b/server/data/datawithbiolabels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[('север', 'B-department'), ('отд7', 'B-department'), ('пахота', 'B-operation'), ('с', 'I-department'), ('свекла', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('501', 'B-perOperation'), ('отд20', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'I-department'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('281', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('61', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('793', 'B-perOperation'), ('отделение', 'O'), ('3', 'I-perOperation'), ('пахота', 'I-operation'), ('подс.площадь', 'B-plant'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('231', 'B-perOperation'), ('по', 'O'), ('пу', 'O'), ('231', 'I-perOperation'), ('дискование', 'B-operation'), ('к.', 'O'), ('сил', 'O'), ('отделение', 'O'), ('7.', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('352', 'B-perOperation'), ('пу-', 'O'), ('484', 'O'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('езубов', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'I-department'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('281', 'O'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('с.', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('10', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('83', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('203', 'B-perOperation'), ('пу-1065га', 'O')]</t>
+          <t>[('север', 'B-department'), ('отд7', 'B-department'), ('пахота', 'B-operation'), ('с', 'I-department'), ('свекла', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('501', 'B-perOperation'), ('отд20', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'I-department'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('281', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('61', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('793', 'B-perOperation'), ('отделение', 'O'), ('3', 'I-perOperation'), ('пахота', 'I-operation'), ('подс.площадь', 'B-plant'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('231', 'B-perOperation'), ('по', 'O'), ('пу', 'O'), ('231', 'I-perOperation'), ('дискование', 'B-operation'), ('к.', 'B-plant'), ('сил', 'I-plant'), ('отделение', 'O'), ('7.', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('352', 'B-perOperation'), ('пу-', 'O'), ('484', 'O'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('езубов', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'I-department'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('281', 'O'), ('дискование', 'I-operation'), ('под', 'I-plant'), ('с.', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('10', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('83', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('203', 'B-perOperation'), ('пу-1065га', 'O')]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1121,6 +1121,1847 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[('внесение', 'B-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('рапс', 'O'), ('отделение', 'B-department'), ('7', 'I-department'), ('-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('138', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('270', 'B-perOperation'), ('дисклвание', 'O'), ('под', 'O'), ('рапс', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('172', 'O'), ('дискование', 'B-operation'), ('после', 'O'), ('кукурузный', 'B-plant'), ('сил', 'I-plant'), ('отделение', 'I-department'), ('7-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('352', 'B-perOperation'), ('по', 'O'), ('пу', 'O'), ('484га', 'O')]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>внесение удобрений под рапс отделение 7 -площадь за день 138 площадь с начала операции 270
+дисклвание под рапс площадь за день 40 площадь с начала операции 172
+дискование после кукурузный сил отделение 7-площадь за день 32 площадь с начала операции 352 по пу 484га</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[('диск', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('8532', 'B-perOperation'), ('отделение', 'O'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1828', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('914', 'B-perOperation'), ('отделение', 'O'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('691', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('117', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('469', 'B-perOperation'), ('отделение', 'O'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('117', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('149', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('142', 'B-perOperation'), ('отделение', 'O'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('29', 'I-perDay'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('142', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('480', 'B-perOperation'), ('отделение', 'O'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('75', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('112', 'O'), ('отделение', 'O'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('368', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('361', 'B-perOperation'), ('отделение', 'O'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('187', 'O'), ('отделение', 'O'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('3', 'I-perDay'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('81', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('(дракула)', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('286', 'B-perOperation'), ('отделение', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('155', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>диск озимая пшеницы 
+по пу площадь за день 35 площадь с начала операции 8532
+отделение 17 площадь за день 35 площадь с начала операции 1828
+второе дискование под сахарная свекла
+по пу площадь за день 97 площадь с начала операции 914
+отделение 16 площадь за день 97 площадь с начала операции 691
+второе дискование под озимая ячмень 
+по пу площадь за день 117 площадь с начала операции 469
+отделение 11 площадь за день 117 площадь с начала операции 149
+второе дискование под рапс
+по пу площадь за день 29 площадь с начала операции 142
+отделение 16 площадь за день 29 площадь с начала операции 29
+дискование кукурузный силос
+по пу площадь за день 142 площадь с начала операции 480
+отделение 12 площадь за день 75 площадь с начала операции 112
+отделение 17 площадь за день 67 площадь с начала операции 368
+пахота под многолетние травы
+по пу площадь за день 21 площадь с начала операции 361
+отделение 11 площадь за день 18 площадь с начала операции 187
+отделение 17 площадь за день 3 площадь с начала операции 3
+пахота под сахарная свекла
+отделение 12 площадь за день 22 площадь с начала операции 81
+чизлование под озимая ячмень
+(дракула)
+по пу площадь за день 64 площадь с начала операции 286
+отделение 12 площадь за день 64 площадь с начала операции 155</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[('диск', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('8627', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1923', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('151', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1065', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('151', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('842', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('136', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('605', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('66', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('285', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('202', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('89', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('386', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('28', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('105', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('(дракула)', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('350', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O')]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>диск озимая пшеницы 
+по пу площадь за день 95 площадь с начала операции 8627
+отделение 17 площадь за день 95 площадь с начала операции 1923
+второе дискование под сахарная свекла
+по пу площадь за день 151 площадь с начала операции 1065
+отделение 16 площадь за день 151 площадь с начала операции 842
+второе дискование под озимая ячмень 
+по пу площадь за день 136 площадь с начала операции 605
+отделение 11 площадь за день 70 площадь с начала операции 219
+отделение 11 площадь за день 66 площадь с начала операции 285
+второе дискование под рапс
+по пу площадь за день 60 площадь с начала операции 202
+отделение 16 площадь за день 60 площадь с начала операции 89
+пахота под многолетние травы
+по пу площадь за день 25 площадь с начала операции 386
+отделение 17 площадь за день 25 площадь с начала операции 28
+пахота под сахарная свекла
+отделение 12 площадь за день 24 площадь с начала операции 105
+чизлование под озимая ячмень
+(дракула)
+по пу площадь за день 64 площадь с начала операции 350
+отделение 12 площадь за день 64 площадь с начала операции 219</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('640', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('78', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('297', 'O')]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21.07
+внесение минеральных удобрений под озимая ячмень пу юг площадь за день 78 площадь с начала операции 640
+отделение 12-площадь за день 78 площадь с начала операции 297</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('220', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1077', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('118', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('234', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-data'), ('за', 'O'), ('день', 'O'), ('102', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('653', 'O')]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 220 площадь с начала операции 1077
+отделение 12-площадь за день 118 площадь с начала операции 234
+отделение 16-площадь за день 102 площадь с начала операции 653</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[('21.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('рапс', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('103', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('422', 'B-perOperation'), ('отделение', 'B-department'), ('16-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('103', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('222', 'O')]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>21.07
+внесение минеральные удобрений под озимая рапс пу юг площадь за день 103 площадь с начала операции 422
+отделение 16-площадь за день 103 площадь с начала операции 222</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[('2-е', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('640', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('242', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('297', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('54', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1119', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('54', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('170', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('262', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('149', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('510', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('30', 'I-perDay'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('412', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('54', 'I-perDay'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('118', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('13', 'I-perDay'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('(дракула)', 'O'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('389', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('258', 'O'), ('прикат', 'B-operation'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'B-plant'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('60', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2-е дискование под озимая ячмень
+по пу площадь за день 35 площадь с начала операции 640
+отделение 11 площадь за день 23 площадь с начала операции 242
+отделение 12 площадь за день 12 площадь с начала операции 297
+второе дискование под сахарная свекла
+по пу площадь за день 54 площадь с начала операции 1119
+отделение 12 площадь за день 54 площадь с начала операции 170
+второе дискование под озимая рапс
+по пу площадь за день 60 площадь с начала операции 262
+отделение 16 площадь за день 60 площадь с начала операции 149
+дискование кукурузный силос
+по пу площадь за день 30 площадь с начала операции 510
+отделение 11 площадь за день 30 площадь с начала операции 30
+пахота под многолетние травы
+по пу площадь за день 26 площадь с начала операции 412
+отделение 17 площадь за день 26 площадь с начала операции 54
+пахота под сахарная свекла
+по пу площадь за день 13 площадь с начала операции 118
+отделение 11 площадь за день 13 площадь с начала операции 13
+чизлование под озимая ячмень
+(дракула)
+по пу площадь за день 39 площадь с начала операции 389
+отделение 12 площадь за день 39 площадь с начала операции 258
+прикат многолетние травы под озимая пшеница
+отделение 11 площадь за день 60 площадь с начала операции 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[('диск', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('19', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('8646', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('19', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1942', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1179', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('230', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('102', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('364', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('102', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('251', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('644', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('4', 'I-perOperation'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('580', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('100', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('456', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('28', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('297', 'O'), ('пахота', 'B-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('414', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('56', 'I-perOperation'), ('пахота', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('19', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('137', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('8', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('21', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('116', 'O'), ('прикат', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('179', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('320', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('179', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('219', 'O'), ('прикат', 'I-operation'), ('многолетние', 'I-plant'), ('травы', 'I-plant'), ('под', 'O'), ('озимая', 'I-plant'), ('пшеница', 'B-plant'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('99', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>диск озимая пшеницы 
+по пу площадь за день 19 площадь с начала операции 8646
+отделение 17 площадь за день 19 площадь с начала операции 1942
+второе дискование под сахарная свекла
+по пу площадь за день 60 площадь с начала операции 1179
+отделение 12 площадь за день 60 площадь с начала операции 230
+второе дискование под озимая рапс
+по пу площадь за день 102 площадь с начала операции 364
+отделение 16 площадь за день 102 площадь с начала операции 251
+второе дискование под озимая ячмень
+по пу площадь за день 4 площадь с начала операции 644
+отделение 17 площадь за день 4 площадь с начала операции 4
+дискование кукурузный силос
+по пу площадь за день 70 площадь с начала операции 580
+отделение 11 площадь за день 70 площадь с начала операции 100
+чизлование под озимая ячмень
+по пу площадь за день 67 площадь с начала операции 456
+отделение 11 площадь за день 28 площадь с начала операции 28
+отделение 12 площадь за день 39 площадь с начала операции 297
+пахота под многолетние травы
+по пу площадь за день 2 площадь с начала операции 414
+отделение 17 площадь за день 2 площадь с начала операции 56
+пахота под сахарная свекла
+по пу площадь за день 19 площадь с начала операции 137
+отделение 11 площадь за день 8 площадь с начала операции 21
+отделение 12 площадь за день 11 площадь с начала операции 116
+прикат под озимая ячмень
+по пу площадь за день 179 площадь с начала операции 320
+отделение 12 площадь за день 179 площадь с начала операции 219
+прикат многолетние травы под озимая пшеница
+отделение 11 площадь за день 39 площадь с начала операции 99</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('183', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('24', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('146', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('13', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('417', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('3', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('59', 'O'), ('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8686', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2542', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1183', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('4', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('234', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('679', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('39', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'I-operation'), ('травы', 'I-plant'), ('формирование', 'I-operation'), ('подготовка', 'I-operation'), ('грунта', 'I-operation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2', 'O')]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>пахота под сахарная свекла
+по пу площадь за день 40 площадь с начала операции 183
+отделение 11 площадь за день 3 площадь с начала операции 24
+отделение 12 площадь за день 24 площадь с начала операции 146
+отделение 16 площадь за день 13 площадь с начала операции 13
+пахота под многолетние травы
+по пу площадь за день 3 площадь с начала операции 417
+отделение 17 площадь за день 3 площадь с начала операции 59
+дискование озимая пшеницы
+по пу площадь за день 40 площадь с начала операции 8686
+отделение 12 площадь за день 40 площадь с начала операции 2542
+второе дискование под сахарная свекла
+по пу площадь за день 4 площадь с начала операции 1183
+отделение 12 площадь за день 4 площадь с начала операции 234
+второе дискование под озимая ячмень
+по пу площадь за день 35 площадь с начала операции 679
+отделение 17 площадь за день 35 площадь с начала операции 39
+выкашивание отцовские травы формирование подготовка грунта
+отделение 12 площадь за день 2 площадь с начала операции 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[('25.07', 'B-data'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('пу', 'O'), ('юг', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('69', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('819', 'B-perOperation'), ('отделение', 'B-department'), ('17-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('110', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('179', 'O')]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>25.07
+внесение минеральных удобрений под озимая ячмень пу юг площадь за день 69 площадь с начала операции 819
+отделение 17-площадь за день 110 площадь с начала операции 179</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('58', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('241', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('13', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('37', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('170', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('34', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('428', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('11', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('70', 'O'), ('дискование', 'B-operation'), ('озимая', 'B-plant'), ('пшеницы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8717', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2573', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('607', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('26', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('138', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('рапс', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('386', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('273', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('722', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('82', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'I-operation'), ('травы', 'I-plant'), ('формирование', 'O'), ('подготовка', 'O'), ('грунта', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('12', 'I-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('457', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('59', 'O'), ('прикат', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('398', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('297', 'O')]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>пахота под сахарная свекла
+по пу площадь за день 58 площадь с начала операции 241
+отделение 11 площадь за день 13 площадь с начала операции 37
+отделение 12 площадь за день 24 площадь с начала операции 170
+отделение 16 площадь за день 21 площадь с начала операции 34
+пахота под многолетние травы
+по пу площадь за день 11 площадь с начала операции 428
+отделение 17 площадь за день 11 площадь с начала операции 70
+дискование озимая пшеницы
+по пу площадь за день 31 площадь с начала операции 8717
+отделение 12 площадь за день 31 площадь с начала операции 2573
+дискование кукурузный силос
+по пу площадь за день 26 площадь с начала операции 607
+отделение 12 площадь за день 26 площадь с начала операции 138
+второе дискование под рапс
+по пу площадь за день 22 площадь с начала операции 386
+отделение 16 площадь за день 22 площадь с начала операции 273
+второе дискование под озимая ячмень
+по пу площадь за день 43 площадь с начала операции 722
+отделение 17 площадь за день 43 площадь с начала операции 82
+выкашивание отцовские травы формирование подготовка грунта
+отделение 12 площадь за день 10 площадь с начала операции 12
+чизлование под озимая ячмень
+по пу площадь за день 30 площадь с начала операции 457
+отделение 11 площадь за день 30 площадь с начала операции 59
+прикат под озимая ячмень 
+по пу площадь за день 78 площадь с начала операции 398
+отделение 12 площадь за день 78 площадь с начала операции 297</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[('26.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1157', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('80', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('314', 'O')]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>26.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 80 площадь с начала операции 1157
+отделение 12-площадь за день 80 площадь с начала операции 314</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[('пу', 'O'), ('«юг»', 'O'), ('3.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2657', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('705', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('99', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('687', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('599', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('50', 'I-perDay'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('167', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('399', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('73', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('117', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('156', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('399', 'I-perOperation'), ('отделение', 'I-department'), ('16', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('334', 'O'), ('посев', 'B-operation'), ('овса', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('закончили', 'O'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('овса', 'I-operation'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('отделение', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('94', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('99', 'O'), ('закончили', 'O')]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>пу «юг» 3.03
+выравнивание зяби под сахарная свекла
+по пу площадь за день 130 площадь с начала операции 2657
+отделение 11 площадь за день 31 площадь с начала операции 705
+отделение 17 площадь за день 99 площадь с начала операции 687
+выравнивание зяби под подсолнечник
+по пу площадь за день 50 площадь с начала операции 599
+отделение 11 площадь за день 50 площадь с начала операции 50
+выравнивание зяби по кукурузный силос
+по пу площадь за день 167 площадь с начала операции 399
+отделение 11 площадь за день 50 площадь с начала операции 73
+отделение 17 площадь за день 117 площадь с начала операции 156
+выравнивание зяби под сою 
+по пу площадь за день 45 площадь с начала операции 399
+отделение 16 площадь за день 45 площадь с начала операции 334
+посев овса 
+по пу площадь за день 94 площадь с начала операции 99
+отделение 11 площадь за день 94 площадь с начала операции 99 закончили
+прокатывание посевов овса 
+по пу площадь за день 94 площадь с начала операции 99
+отделение площадь за день 94 площадь с начала операции 99 закончили</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[('пу', 'O'), ('«юг»', 'O'), ('4.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('92', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2749', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('92', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('779', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('125', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('724', 'O'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('83', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('133', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('42', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('42', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('86', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('485', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('33', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('106', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('53', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('209', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('17', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('17', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('108', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('459', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('394', 'O')]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>пу «юг» 4.03 
+выравнивание зяби под сахарная свекла
+по пу площадь за день 92 площадь с начала операции 2749
+отделение 17 площадь за день 92 площадь с начала операции 779 
+выравнивание зяби под подсолнечник
+по пу площадь за день 125 площадь с начала операции 724
+отделение 11 площадь за день 83 площадь с начала операции 133
+отделение 17 площадь за день 42 площадь с начала операции 42
+выравнивание зяби по кукурузный силос
+по пу площадь за день 86 площадь с начала операции 485
+отделение 11 площадь за день 33 площадь с начала операции 106
+отделение 17 площадь за день 53 площадь с начала операции 209
+выравнивание зяби под кукурузное зерно
+по пу площадь за день 17 площадь с начала операции 588
+отделение 11 площадь за день 17 площадь с начала операции 108
+выравнивание зяби под сою 
+по пу площадь за день 60 площадь с начала операции 459
+отделение 16 площадь за день 60 площадь с начала операции 394</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[('вырав', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсол', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('199', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('923', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('108', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('241', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('133', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах/', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2827', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('857', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('121', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('580', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('80', 'I-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('41', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('381', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('528', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('149', 'O')]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>вырав зяби под подсол
+по пу площадь за день 199 площадь с начала операции 923
+отделение 11 площадь за день 108 площадь с начала операции 241
+отделение 17 площадь за день 91 площадь с начала операции 133
+выравнивание зяби под сах/ свекла
+по пу площадь за день 78 площадь с начала операции 2827
+отделение 17 площадь за день 78 площадь с начала операции 857
+выравнивание зяби под сою
+по пу площадь за день 121 площадь с начала операции 580
+отделение 11 площадь за день 80 площадь с начала операции 80
+отделение 16 площадь за день 41 площадь с начала операции 381
+выравнивание зяби под кукурузный силос
+по пу площадь за день 43 площадь с начала операции 528
+отделение 11 площадь за день 43 площадь с начала операции 149</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2851', 'B-perOperation'), ('отделение', 'B-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('881', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнухи', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('994', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('37', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('278', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('34', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('167', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('560', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('32', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('241', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('74', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('662', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('18', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('56', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('124', 'O'), ('выравнивание', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('133', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('713', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('113', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('193', 'O'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('401', 'O'), ('второе', 'B-operation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('кукурузное', 'I-plant'), ('зерно', 'I-plant'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('56', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('56', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>выравн зяби под сахарная свекла
+по пу площадь за день 24 площадь с начала операции 2851
+отделение 17 площадь за день 24 площадь с начала операции 881
+выравнивание зяби под подсолнухи
+по пу площадь за день 71 площадь с начала операции 994
+отделение 11 площадь за день 37 площадь с начала операции 278
+отделение 17 площадь за день 34 площадь с начала операции 167
+выравнивание под кукурузный силос
+по пу площадь за день 32 площадь с начала операции 560
+отделение 17 площадь за день 32 площадь с начала операции 241
+выравнивание под кукурузное зерно
+по пу площадь за день 74 площадь с начала операции 662
+отделение 16 площадь за день 18 площадь с начала операции 18
+отделение 17 площадь за день 56 площадь с начала операции 124
+выравнивание под сою
+по пу площадь за день 133 площадь с начала операции 713
+отделение 11 площадь за день 113 площадь с начала операции 193
+отделение 16 площадь за день 20 площадь с начала операции 401
+второе выравнивание под кукурузное зерно
+отделение 17 площадь за день 56 площадь с начала операции 56</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('153', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('822', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('122', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('352', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('300', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('73', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('930', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('327', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('83', 'O')]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>выравн под кукурузный силос
+попу площадь за день 153 площадь с начала операции 822
+отделение 11 площадь за день 122 площадь с начала операции 352
+отделение 17 площадь за день 31 площадь с начала операции 300
+выравнивание под сою
+попу площадь за день 73 площадь с начала операции 930
+отделение 11 площадь за день 28 площадь с начала операции 327
+отделение 17 площадь за день 45 площадь с начала операции 83</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[('10.03', 'B-data'), ('день', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1749', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2559', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1082', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1371', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('667', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1188)', 'O'), ('отд11-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('307', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('307', 'O'), ('(амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('307', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('307)', 'O'), ('отделение', 'B-department'), ('12-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('671', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('671(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('318', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('318;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('353', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('353)', 'O'), ('отделение', 'I-department'), ('16-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('462', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1272(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('148', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('437;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('314', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('835)', 'O'), ('отделение', 'I-department'), ('17-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('309', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('309(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('309', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('309)', 'O')]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>10.03 день
+вторая подкормка озимых, пу "юг" - площадь за день 1749 площадь с начала операции 2559
+(в т.ч амазон-площадь за день 1082 площадь с начала операции 1371
+пневмоход-площадь за день 667 площадь с начала операции 1188)
+отд11- площадь за день 307 площадь с начала операции 307 (амазон площадь за день 307 площадь с начала операции 307) 
+отделение 12- площадь за день 671 площадь с начала операции 671( амазон площадь за день 318 площадь с начала операции 318; пневмоход площадь за день 353 площадь с начала операции 353) 
+отделение 16- площадь за день 462 площадь с начала операции 1272( амазон площадь за день 148 площадь с начала операции 437; пневмоход площадь за день 314 площадь с начала операции 835) 
+отделение 17- площадь за день 309 площадь с начала операции 309( амазон площадь за день 309 площадь с начала операции 309)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[('16.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('30', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('599', 'O'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('89%,', 'O'), ('73', 'O'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('30', 'I-perDay'), ('га', 'O'), ('день,', 'O'), ('879', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('77%,', 'O'), ('260', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('2', 'O'), ('агрегата.', 'O')]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16.11 мир
+пахота зяби под кукурузу 30 га день, 599 га от начала, 89%, 73 га остаток.
+пахота зяби под сою 30 га день, 879 га от начала, 77%, 260 га остаток.
+работало 2 агрегата.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[('17.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('40', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('639', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('95%,', 'O'), ('33', 'O'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('20', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('899', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('79%,', 'O'), ('240', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('2', 'I-perDay'), ('агрегата.', 'O')]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>17.11 мир
+пахота зяби под кукурузу 40 га день, 639 га от начала, 95%, 33 га остаток.
+пахота зяби под сою 20 га день, 899 га от начала, 79%, 240 га остаток.
+работало 2 агрегата.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[('18.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('25', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('664', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('99%,', 'O'), ('8', 'I-data'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('40', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('939', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('83%,', 'O'), ('200', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('3', 'I-perOperation'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('45', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('952', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('100%.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O')]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>18.11 мир
+пахота зяби под кукурузу 25 га день, 664 га от начала, 99%, 8 га остаток.
+пахота зяби под сою 40 га день, 939 га от начала, 83%, 200 га остаток.
+работало 3 агрегата.
+выравнивание зяби под сахарную свёклу 45 га день, 952 га от начала, 100%. работал 1 агрегат</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[('11.03', 'B-data'), ('ночь', 'B-department'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2017', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('4576', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1263', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2634', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('754', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1942)', 'O'), ('отд11-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('337', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('644', 'O'), ('(амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('337', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('644)', 'O'), ('отделение', 'B-department'), ('12-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('767', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1438(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('284', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('602;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('483', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('836)', 'O'), ('отделение', 'I-department'), ('16-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('493', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1765(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('222', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('659;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('271', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1106)', 'O'), ('отделение', 'I-department'), ('17-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('420', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('729(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('420', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('729)', 'O')]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>11.03 ночь
+вторая подкормка озимых, пу "юг" - площадь за день 2017 площадь с начала операции 4576
+(в т.ч амазон-площадь за день 1263 площадь с начала операции 2634
+пневмоход-площадь за день 754 площадь с начала операции 1942)
+отд11- площадь за день 337 площадь с начала операции 644 (амазон площадь за день 337 площадь с начала операции 644) 
+отделение 12- площадь за день 767 площадь с начала операции 1438( амазон площадь за день 284 площадь с начала операции 602; пневмоход площадь за день 483 площадь с начала операции 836) 
+отделение 16- площадь за день 493 площадь с начала операции 1765( амазон площадь за день 222 площадь с начала операции 659; пневмоход площадь за день 271 площадь с начала операции 1106) 
+отделение 17- площадь за день 420 площадь с начала операции 729( амазон площадь за день 420 площадь с начала операции 729)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[('11.03', 'B-data'), ('день', 'B-department'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-perDay'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('1606', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('6182', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('1048', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('3682', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('558', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2500)', 'O'), ('отд11-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('486', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1130', 'O'), ('(амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('356', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1000;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('130', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('130)', 'O'), ('отделение', 'B-department'), ('12-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('778', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2216(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('350', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('952;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('428', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1264)', 'O'), ('отделение', 'I-department'), ('16-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1765(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('659;', 'O'), ('пневмоход', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1106)', 'O'), ('отделение', 'I-department'), ('17-', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('342', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1071(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'I-department'), ('342', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1071)', 'O')]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>11.03 день
+вторая подкормка озимых, пу "юг" - площадь за день 1606 площадь с начала операции 6182
+(в т.ч амазон-площадь за день 1048 площадь с начала операции 3682
+пневмоход-площадь за день 558 площадь с начала операции 2500)
+отд11- площадь за день 486 площадь с начала операции 1130 (амазон площадь за день 356 площадь с начала операции 1000; пневмоход площадь за день 130 площадь с начала операции 130) 
+отделение 12- площадь за день 778 площадь с начала операции 2216( амазон площадь за день 350 площадь с начала операции 952; пневмоход площадь за день 428 площадь с начала операции 1264) 
+отделение 16- площадь за день 0 площадь с начала операции 1765( амазон площадь за день 0 площадь с начала операции 659; пневмоход площадь за день 0 площадь с начала операции 1106) 
+отделение 17- площадь за день 342 площадь с начала операции 1071( амазон площадь за день 342 площадь с начала операции 1071)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1096', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('549', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1106', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('503', 'O')]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>пахота под кукурузный зерно
+попу площадь за день 6 площадь с начала операции 1096
+отделение 12 площадь за день 6 площадь с начала операции 549
+выравнивание под сою
+попу площадь за день 45 площадь с начала операции 1106
+отделение 11 площадь за день 45 площадь с начала операции 503</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[('12.03', 'B-data'), ('день', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимых,', 'B-plant'), ('пу', 'O'), ('"юг"', 'O'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('6700', 'B-perOperation'), ('(в', 'O'), ('т.ч', 'O'), ('амазон-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('4200', 'O'), ('пневмоход-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('0', 'I-data'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2500)', 'O'), ('отделение', 'B-department'), ('17-', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1589(', 'O'), ('амазон', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1589)', 'O'), ('вымочки', 'O'), ('попу', 'O'), ('56', 'O'), ('га', 'O')]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>12.03 день
+вторая подкормка озимых, пу "юг" - площадь за день 129 площадь с начала операции 6700
+(в т.ч амазон- площадь за день 129 площадь с начала операции 4200
+пневмоход-площадь за день 0 площадь с начала операции 2500)
+отделение 17- площадь за день 129 площадь с начала операции 1589( амазон площадь за день 129 площадь с начала операции 1589)
+вымочки попу 56 га</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('14', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1664', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('14', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('897', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сою', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('164', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1270', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('95', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('598', 'O'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('35', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('154', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('34', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('117', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('119', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('119', 'I-perDay'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('39', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('80', 'O')]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>пахота под сою
+попу площадь за день 14 площадь с начала операции 1664
+отделение 11 площадь за день 14 площадь с начала операции 897
+выравнивание под сою
+попу площадь за день 164 площадь с начала операции 1270
+отделение 11 площадь за день 95 площадь с начала операции 598
+отделение 12 площадь за день 35 площадь с начала операции 154
+отделение 17 площадь за день 34 площадь с начала операции 117
+предпосевная культура под сахарная свекла
+попу площадь за день 119 площадь с начала операции 119
+отделение 12 площадь за день 39 площадь с начала операции 39
+отделение 16 площадь за день 80 площадь с начала операции 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('118', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1388', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('649', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('67', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('221', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('906', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('437', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('265', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('384', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('47', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('47', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('65', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('104', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('103', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('183', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('50', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свеклы', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('107', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('107', 'I-perDay'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('29', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('29', 'O'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('78', 'O')]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>выравн под сою
+попу площадь за день 118 площадь с начала операции 1388
+отделение 11 площадь за день 51 площадь с начала операции 649
+отделение 12 площадь за день 67 площадь с начала операции 221
+выравнивание под кукурузный зерно
+попу площадь за день 25 площадь с начала операции 906
+отделение 12 площадь за день 25 площадь с начала операции 437
+предпосевная культура под сахарная свекла
+попу площадь за день 265 площадь с начала операции 384
+отделение 11 площадь за день 47 площадь с начала операции 47
+отделение 12 площадь за день 65 площадь с начала операции 104
+отделение 16 площадь за день 103 площадь с начала операции 183
+отделение 17 площадь за день 50 площадь с начала операции 50
+посев сахарная свеклы
+попу площадь за день 107 площадь с начала операции 107
+отделение 12 площадь за день 29 площадь с начала операции 29
+отделение 16 площадь за день 78 площадь с начала операции 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[('рассвет', 'B-department'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('886', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10224/91%', 'B-perOperation'), ('культура.', 'O'), ('сахарная', 'I-plant'), ('свёкла', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('551', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10793/96%', 'B-perOperation'), ('2-подкормка', 'B-operation'), ('озимая', 'B-plant'), ('пшеницыплощадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('32231', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('100%', 'O'), ('герб.', 'B-operation'), ('обработка', 'I-operation'), ('озимая', 'I-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('285', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('928/3%', 'B-perOperation'), ('пред.культ.', 'B-operation'), ('подсол.площадь', 'B-plant'), ('за', 'O'), ('день', 'O'), ('32', 'I-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('32', 'I-perDay'), ('посев', 'I-operation'), ('подсол.', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>рассвет
+посев сахарная свеклы площадь за день 886 площадь с начала операции 10224/91%
+культура. сахарная свёкла площадь за день 551 площадь с начала операции 10793/96%
+2-подкормка озимая пшеницыплощадь за день 32231 площадь с начала операции 100%
+герб. обработка озимая пшеницы площадь за день 285 площадь с начала операции 928/3%
+пред.культ. подсол.площадь за день 32 площадь с начала операции 32
+посев подсол. площадь за день 10 площадь с начала операции 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('53', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1441', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('672', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('251', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('871', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('401', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('406', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('20', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('67', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('106', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('15', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('122', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('88', 'O')]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>выравн под сою
+попу площадь за день 53 площадь с начала операции 1441
+отделение 11 площадь за день 23 площадь с начала операции 672
+отделение 12 площадь за день 30 площадь с начала операции 251
+выравнивание под кукурузный силос
+попу площадь за день 6 площадь с начала операции 871
+отделение 11 площадь за день 6 площадь с начала операции 401
+предпосевная культура под сахарная свекла
+попу площадь за день 22 площадь с начала операции 406
+отделение 11 площадь за день 20 площадь с начала операции 67
+отделение 12 площадь за день 2 площадь с начала операции 106
+посев сахарная свекла
+попу площадь за день 15 площадь с начала операции 122
+отделение 11 площадь за день 5 площадь с начала операции 5
+отделение 16 площадь за день 10 площадь с начала операции 88</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('под', 'O'), ('куклы', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('54', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('960', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('166', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('467', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('877', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('407', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('247', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('653', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('27', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('94', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('101', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('207', 'O'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('64', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('247', 'I-perDay'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('55', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('105', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('222', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('12', 'I-department'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('17', 'I-department'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('45', 'O'), ('отделение', 'I-department'), ('16', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('62', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('150', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('10', 'O')]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>выравн под куклы зерно
+попу площадь за день 54 площадь с начала операции 960
+отделение 11 площадь за день 24 площадь с начала операции 166
+отделение 12 площадь за день 30 площадь с начала операции 467
+выравнивание под кукурузный силос
+попу площадь за день 6 площадь с начала операции 877
+отделение 11 площадь за день 6 площадь с начала операции 407
+предпосевная культура под сахарная свекла
+попу площадь за день 247 площадь с начала операции 653
+отделение 11 площадь за день 27 площадь с начала операции 94
+отделение 12 площадь за день 101 площадь с начала операции 207
+отделение 16 площадь за день 64 площадь с начала операции 247
+отделение 17 площадь за день 55 площадь с начала операции 105
+посев сахарная свекла
+попу площадь за день 100 площадь с начала операции 222
+отделение 11 площадь за день 12 площадь с начала операции 17
+отделение 12 площадь за день 16 площадь с начала операции 45
+отделение 16 площадь за день 62 площадь с начала операции 150
+отделение 17 площадь за день 10 площадь с начала операции 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('82', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1042', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('82', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('549', 'O'), ('выравнивание', 'B-operation'), ('под', 'O'), ('кукурузный', 'I-plant'), ('силос', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('907', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('437', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('531', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1184', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('174', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('260', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('467', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('101', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('348', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('90', 'I-perOperation'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('195', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('357', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('579', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('97', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('130', 'O'), ('отделение', 'I-department'), ('16', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('81', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('231', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('111', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('121', 'O')]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>выравн под кукурузный зерно
+попу площадь за день 82 площадь с начала операции 1042
+отделение 12 площадь за день 82 площадь с начала операции 549
+выравнивание под кукурузный силос
+попу площадь за день 30 площадь с начала операции 907
+отделение 11 площадь за день 30 площадь с начала операции 437
+предпосевная культура под сахарная свекла
+попу площадь за день 531 площадь с начала операции 1184
+отделение 11 площадь за день 80 площадь с начала операции 174
+отделение 12 площадь за день 260 площадь с начала операции 467
+отделение 16 площадь за день 101 площадь с начала операции 348
+отделение 17 площадь за день 90 площадь с начала операции 195
+посев сахарная свекла
+попу площадь за день 357 площадь с начала операции 579
+отделение 11 площадь за день 80 площадь с начала операции 97
+отделение 12 площадь за день 85 площадь с начала операции 130
+отделение 16 площадь за день 81 площадь с начала операции 231
+отделение 17 площадь за день 111 площадь с начала операции 121</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('932', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('462', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('452', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1636', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('252', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('143', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('610', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('121', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('469', 'O'), ('5га', 'O'), ('вымочки', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('110', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('305', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('403', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('982', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('73', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('170', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('139', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('269', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('65', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('296', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('126', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('247', 'O')]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>выравн под кукурузный силос
+попу площадь за день 25 площадь с начала операции 932
+отделение 11 площадь за день 25 площадь с начала операции 462
+предпосевная культура под сахарная свекла
+попу площадь за день 452 площадь с начала операции 1636
+отделение 11 площадь за день 78 площадь с начала операции 252
+отделение 12 площадь за день 143 площадь с начала операции 610
+отделение 16 площадь за день 121 площадь с начала операции 469 5га вымочки
+отделение 17 площадь за день 110 площадь с начала операции 305
+посев сахарная свекла
+попу площадь за день 403 площадь с начала операции 982
+отделение 11 площадь за день 73 площадь с начала операции 170
+отделение 12 площадь за день 139 площадь с начала операции 269
+отделение 16 площадь за день 65 площадь с начала операции 296
+отделение 17 площадь за день 126 площадь с начала операции 247</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[('предп', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('211', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1847', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('81', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('333', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('435', 'O'), ('посев', 'B-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('268', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1250', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('270', 'O'), ('отделение', 'I-department'), ('12', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('36', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('305', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('132', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('379', 'O')]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>предп культура под сахарная свекла
+попу площадь за день 211 площадь с начала операции 1847
+отделение 11 площадь за день 81 площадь с начала операции 333
+отделение 17 площадь за день 130 площадь с начала операции 435
+посев сахарная свекла
+попу площадь за день 268 площадь с начала операции 1250
+отделение 11 площадь за день 100 площадь с начала операции 270
+отделение 12 площадь за день 36 площадь с начала операции 305
+отделение 17 площадь за день 132 площадь с начала операции 379</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[('вырав', 'B-operation'), ('под', 'O'), ('кукурузный', 'B-plant'), ('зерно', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1093', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('51', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('217', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('288', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2135', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('78', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('411', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('87', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('697', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('558', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('398', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1648', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('89', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('359', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('98', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('403', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('84', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('380', 'O'), ('отделение', 'I-department'), ('17', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('127', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('506', 'O'), ('внесен', 'O'), ('кас', 'O'), ('под', 'O'), ('озимая', 'O'), ('пшеница', 'O'), ('отделение', 'I-department'), ('16', 'I-perOperation'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('63', 'O'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('63', 'O')]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>вырав под кукурузный зерно
+попу площадь за день 51 площадь с начала операции 1093
+отделение 11 площадь за день 51 площадь с начала операции 217
+предпосевная культура под сахарная свекла
+попу площадь за день 288 площадь с начала операции 2135
+отделение 11 площадь за день 78 площадь с начала операции 411
+отделение 12 площадь за день 87 площадь с начала операции 697
+отделение 17 площадь за день 123 площадь с начала операции 558
+посев сахарная свекла
+попу площадь за день 398 площадь с начала операции 1648
+отделение 11 площадь за день 89 площадь с начала операции 359
+отделение 12 площадь за день 98 площадь с начала операции 403
+отделение 16 площадь за день 84 площадь с начала операции 380
+отделение 17 площадь за день 127 площадь с начала операции 506
+внесен кас под озимая пшеница
+отделение 16 площадь за день 63 площадь с начала операции 63</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[('вырав', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1457', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('688', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('152', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2287', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('72', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('483', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('747', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('284', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1932', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('42', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('401', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('123', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('526', 'O'), ('отделение', 'I-department'), ('16', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('89', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('469', 'O'), ('5га', 'O'), ('вымочки', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('536', 'O')]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>вырав под сою
+попу площадь за день 16 площадь с начала операции 1457
+отделение 11 площадь за день 16 площадь с начала операции 688
+предпосевная культура под сахарная свекла
+попу площадь за день 152 площадь с начала операции 2287
+отделение 11 площадь за день 72 площадь с начала операции 483
+отделение 12 площадь за день 50 площадь с начала операции 747
+отделение 17 площадь за день 30 площадь с начала операции 588
+посев сахарная свекла
+попу площадь за день 284 площадь с начала операции 1932
+отделение 11 площадь за день 42 площадь с начала операции 401
+отделение 12 площадь за день 123 площадь с начала операции 526
+отделение 16 площадь за день 89 площадь с начала операции 469 5га вымочки
+отделение 17 площадь за день 30 площадь с начала операции 536</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[('подкормка', 'B-operation'), ('кас-32', 'O'), ('по', 'I-operation'), ('оз.пшенице', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('99', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('162', 'B-perOperation'), ('отделение', 'B-department'), ('16-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('99', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('162', 'I-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 99 площадь с начала операции 162
+отделение 16-площадь за день 99 площадь с начала операции 162</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[('30.03.25г', 'B-data'), ('мир.', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('97/609', 'O'), ('-', 'O'), ('14%', 'O'), ('посев', 'I-operation'), ('подсолнечника', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('17', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('47/659', 'O'), ('-', 'O'), ('6%', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('371', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('5118/166', 'B-perOperation'), ('-', 'O'), ('97%', 'O'), ('на', 'I-operation'), ('данный', 'O'), ('момент', 'O'), ('осадки', 'O'), ('в', 'I-operation'), ('2х', 'O'), ('районах', 'O'), ('до', 'O'), ('3мм', 'O')]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>30.03.25г мир.
+предпосевная культивация под подсолнечник площадь за день 50 площадь с начала операции 97/609 - 14%
+посев подсолнечника площадь за день 17 площадь с начала операции 47/659 - 6%
+вторая подкормка озимой пшеницы площадь за день 371 площадь с начала операции 5118/166 - 97%
+на данный момент осадки в 2х районах до 3мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[('ао', 'O'), ('кропоткинское', 'O'), ('30.03.2024', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('504', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('7758', 'B-perOperation'), ('посев', 'B-operation'), ('сах.свеклы', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('241', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('1806', 'B-perOperation'), ('87%', 'O'), ('(7ед)', 'O'), ('осталось', 'O'), ('335га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'B-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('2874', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('подсолнечник', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('70', 'I-perDay'), ('площадь', 'O'), ('с', 'O'), ('начала', 'O'), ('операции', 'O'), ('70', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+30.03.2024
+2 подкормка озимой пшеницы площадь за день 504 площадь с начала операции 7758
+посев сах.свеклы площадь за день 241 площадь с начала операции 1806 87% (7ед)
+осталось 335га
+выравнивание зяби под кукурузу площадь за день 70 площадь с начала операции 2874
+предпосевная культивация под подсолнечник площадь за день 70 площадь с начала операции 70</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[('27.07', 'B-data'), ('внесение', 'B-operation'), ('минеральные', 'I-operation'), ('удобрений', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свёклу', 'I-plant'), ('2025', 'O'), ('г', 'O'), ('пу', 'O'), ('юг-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('454', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('1715', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('102', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('209', 'O'), ('отделение', 'I-department'), ('12-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('175', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('593', 'O'), ('отделение', 'I-department'), ('17-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('177', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('260', 'O')]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>27.07
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 454 площадь с начала операции 1715
+отделение 11-площадь за день 102 площадь с начала операции 209
+отделение 12-площадь за день 175 площадь с начала операции 593
+отделение 17-площадь за день 177 площадь с начала операции 260</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('379', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('36', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('240', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('14', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('79', 'I-perOperation'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('190', 'B-perOperation'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1393', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('130', 'I-perDay'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('207', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('857', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('66', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('199', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('141', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('289', 'O'), ('дискование', 'I-operation'), ('озимая', 'I-plant'), ('пшеницы', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('57', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8743', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('57', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1999', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('формирование', 'O'), ('подготовка', 'O'), ('грунта', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('2', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('24', 'O'), ('прикат', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('458', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('60', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>пахота под сахарная свекла
+по пу площадь за день 50 площадь с начала операции 379
+отделение 12 площадь за день 36 площадь с начала операции 240
+отделение 16 площадь за день 14 площадь с начала операции 79
+чизлование под озимая ячмень
+по пу площадь за день 60 площадь с начала операции 588
+отделение 11 площадь за день 60 площадь с начала операции 190
+второе дискование под сахарная свекла
+по пу площадь за день 130 площадь с начала операции 1393
+отделение 17 площадь за день 130 площадь с начала операции 130
+дискование кукурузный силос
+по пу площадь за день 207 площадь с начала операции 857
+отделение 11 площадь за день 66 площадь с начала операции 199
+отделение 12 площадь за день 141 площадь с начала операции 289 
+дискование озимая пшеницы 
+по пу площадь за день 57 площадь с начала операции 8743
+отделение 17 площадь за день 57 площадь с начала операции 1999
+выкашивание отцовские травы формирование подготовка грунта
+отделение 12 площадь за день 2 площадь с начала операции 24
+прикат под озимая ячмень
+по пу площадь за день 60 площадь с начала операции 458
+отделение 11 площадь за день 60 площадь с начала операции 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[('пу', 'O'), ('«юг»', 'O'), ('2.03', 'B-data'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('105', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2527', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('30', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('674', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('75', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('588', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузное', 'B-plant'), ('зерно', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('571', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('412', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('по', 'O'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('62', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('232', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('23', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('39', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('39', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('72', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('354', 'B-perOperation'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('72', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('289', 'O'), ('посев', 'B-operation'), ('овса', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('прокатывание', 'B-operation'), ('посевов', 'I-operation'), ('овса', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('отделение', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('5', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('5', 'I-perDay'), ('1-я', 'B-operation'), ('затравка', 'I-operation'), ('мыш', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('озимым', 'B-plant'), ('кол.', 'O'), ('пу"юг"', 'O'), ('-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8804,', 'B-perOperation'), (',12', 'O'), ('человек', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('100', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2194', 'O')]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>пу «юг» 2.03
+выравнивание зяби под сахарная свекла
+по пу площадь за день 105 площадь с начала операции 2527
+отделение 11 площадь за день 30 площадь с начала операции 674
+отделение 17 площадь за день 75 площадь с начала операции 588
+выравнивание зяби под кукурузное зерно 
+по пу площадь за день 40 площадь с начала операции 571
+отделение 12 площадь за день 40 площадь с начала операции 412
+выравнивание зяби по кукурузный силос
+по пу площадь за день 62 площадь с начала операции 232
+отделение 11 площадь за день 23 площадь с начала операции 23
+отделение 17 площадь за день 39 площадь с начала операции 39
+выравнивание зяби под сою 
+по пу площадь за день 72 площадь с начала операции 354
+отделение 16 площадь за день 72 площадь с начала операции 289
+посев овса 
+по пу площадь за день 5 площадь с начала операции 5
+отделение 11 площадь за день 5 площадь с начала операции 5
+прокатывание посевов овса 
+по пу площадь за день 5 площадь с начала операции 5
+отделение площадь за день 5 площадь с начала операции 5
+1-я затравка мыш грызунов по озимым кол. пу"юг" -площадь за день 100 площадь с начала операции 8804, ,12 человек
+отделение 16-площадь за день 100 площадь с начала операции 2194</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[('вырав', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1481', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('24', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('712', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('369', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2656', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('156', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('639', 'O'), ('отделение', 'I-department'), ('12', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('48', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('795', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('163', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('751', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('355', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2287', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('481', 'I-perOperation'), ('отделение', 'I-department'), ('12', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('133', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('659', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('142', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('678', 'O')]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>вырав под сою
+попу площадь за день 24 площадь с начала операции 1481
+отделение 11 площадь за день 24 площадь с начала операции 712
+предпосевная культура под сахарная свекла
+попу площадь за день 369 площадь с начала операции 2656
+отделение 11 площадь за день 156 площадь с начала операции 639
+отделение 12 площадь за день 48 площадь с начала операции 795
+отделение 17 площадь за день 163 площадь с начала операции 751
+посев сахарная свекла
+попу площадь за день 355 площадь с начала операции 2287
+отделение 11 площадь за день 80 площадь с начала операции 481
+отделение 12 площадь за день 133 площадь с начала операции 659
+отделение 17 площадь за день 142 площадь с начала операции 678</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[('22.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('320', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('474', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('95', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('174', 'O'), ('отделение', 'I-department'), ('12-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('150', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('150', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('75', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('150', 'O')]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>22.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 320 площадь с начала операции 474
+отделение 11-площадь за день 95 площадь с начала операции 174
+отделение 12-площадь за день 150 площадь с начала операции 150
+отделение 16-площадь за день 75 площадь с начала операции 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[('подкормка', 'B-operation'), ('кас-32', 'I-operation'), ('по', 'I-operation'), ('оз.пшенице', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('400', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('562', 'B-perOperation'), ('отделение', 'B-department'), ('12-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('241', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('241', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('159', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('321', 'O')]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 400 площадь с начала операции 562
+отделение 12-площадь за день 241 площадь с начала операции 241
+отделение 16-площадь за день 159 площадь с начала операции 321</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('под', 'O'), ('сою', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1497', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('728', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2706', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('689', 'O'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2378', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('502', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('704', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('25', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('703', 'O')]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>выравн под сою
+по пу площадь за день 16 площадь с начала операции 1497
+отделение 11 площадь за день 16 площадь с начала операции 728
+предпосевная культура под сахарная свекла
+попу площадь за день 50 площадь с начала операции 2706
+отделение 11 площадь за день 50 площадь с начала операции 689
+посев сахарная свекла
+попу площадь за день 91 площадь с начала операции 2378
+отделение 11 площадь за день 21 площадь с начала операции 502
+отделение 12 площадь за день 45 площадь с начала операции 704
+отделение 17 площадь за день 25 площадь с начала операции 703</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[('23.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('545', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('71', 'I-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('245', 'O')]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>23.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 71 площадь с начала операции 545
+отделение 11-площадь за день 71 площадь с начала операции 245</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[('выравн', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1515', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('18', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('746', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('175//2881', 'B-perDay'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('45', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('734', 'O'), ('отделение', 'I-department'), ('17', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('130', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('881', 'B-perOperation'), ('посев', 'I-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('попу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('333', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2711', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('113', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('615', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('91', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('795', 'O'), ('отделение', 'I-department'), ('17', 'I-perDay'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('129', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('832', 'O'), ('предпосевная', 'I-operation'), ('культура', 'I-operation'), ('под', 'O'), ('подсо', 'B-plant'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('90', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('90', 'O')]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>выравн зяби под сою
+попу площадь за день 18 площадь с начала операции 1515
+отделение 11 площадь за день 18 площадь с начала операции 746
+предпосевная культура под сахарная свекла
+попу 175//2881
+отделение 11 площадь за день 45 площадь с начала операции 734
+отделение 17 площадь за день 130 площадь с начала операции 881
+посев сахарная свекла
+попу площадь за день 333 площадь с начала операции 2711
+отделение 11 площадь за день 113 площадь с начала операции 615
+отделение 12 площадь за день 91 площадь с начала операции 795
+отделение 17 площадь за день 129 площадь с начала операции 832
+предпосевная культура под подсо
+отделение 16 площадь за день 90 площадь с начала операции 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[('24.03', 'B-data'), ('внесение', 'B-operation'), ('гербицидов', 'I-operation'), ('по', 'O'), ('оз.рапсу', 'B-plant'), ('пу"юг"-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('445', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('990', 'B-perOperation'), ('отделение', 'B-department'), ('11-площадь', 'I-department'), ('за', 'O'), ('день', 'O'), ('138', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('383', 'O'), ('отделение', 'I-department'), ('12-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('110', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('260', 'O'), ('отделение', 'I-department'), ('16-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('97', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('247', 'O'), ('отделение', 'I-department'), ('17-площадь', 'B-department'), ('за', 'O'), ('день', 'O'), ('100', 'O'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('100', 'O')]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>24.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 445 площадь с начала операции 990
+отделение 11-площадь за день 138 площадь с начала операции 383
+отделение 12-площадь за день 110 площадь с начала операции 260
+отделение 16-площадь за день 97 площадь с начала операции 247
+отделение 17-площадь за день 100 площадь с начала операции 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('77', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('518', 'B-perOperation'), ('отделение', 'B-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('46', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('298', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('21', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('143', 'O'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('17', 'I-department'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('640', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('22', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('242', 'O'), ('чизлование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('зел', 'O'), ('корм', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('40', 'I-perOperation'), ('дискование', 'B-operation'), ('озимая', 'I-plant'), ('пшеницы', 'B-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('8872', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('28', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2097', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('189', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1763', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('60', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('209', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('122', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('540', 'O'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('7', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('172', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('904', 'O'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('6', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('229', 'O'), ('прик', 'B-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('498', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('40', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('100', 'O'), ('уборка', 'B-operation'), ('сои', 'B-plant'), ('(семенной)', 'I-plant'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('65', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('65', 'I-perDay'), ('валовый', 'O'), ('58720', 'O'), ('урожайность', 'O'), ('9', 'O')]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>пахота под сахарная свекла
+по пу площадь за день 77 площадь с начала операции 518
+отделение 12 площадь за день 46 площадь с начала операции 298
+отделение 16 площадь за день 21 площадь с начала операции 143
+отделение 17 площадь за день 10 площадь с начала операции 17
+чизлование под озимая ячмень 
+по пу площадь за день 22 площадь с начала операции 640
+отделение 11 площадь за день 22 площадь с начала операции 242
+чизлование под озимая зел корм
+отделение 11 площадь за день 40 площадь с начала операции 40
+дискование озимая пшеницы
+по пу площадь за день 28 площадь с начала операции 8872
+отделение 17 площадь за день 28 площадь с начала операции 2097
+второе дискование под сахарная свекла
+по пу площадь за день 189 площадь с начала операции 1763
+отделение 11 площадь за день 60 площадь с начала операции 209
+отделение 12 площадь за день 122 площадь с начала операции 540
+отделение 17 площадь за день 7 площадь с начала операции 172
+дискование кукурузный силос
+по пу площадь за день 6 площадь с начала операции 904
+отделение 11 площадь за день 6 площадь с начала операции 229
+прик под озимая ячмень
+по пу площадь за день 40 площадь с начала операции 498
+отделение 11 площадь за день 40 площадь с начала операции 100
+уборка сои (семенной)
+отделение 11 площадь за день 65 площадь с начала операции 65
+валовый 58720
+урожайность 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('88', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('329', 'B-perOperation'), ('отделение', 'B-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('23', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('60', 'O'), ('отделение', 'I-department'), ('12', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('34', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('204', 'O'), ('отделение', 'I-department'), ('16', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('31', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('65', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('многолетние', 'B-plant'), ('травы', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('438', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'B-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('80', 'O'), ('чизлование', 'B-operation'), ('под', 'O'), ('озимая', 'B-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('528', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('71', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('130', 'O'), ('второе', 'B-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1263', 'B-perOperation'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('80', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('314', 'O'), ('второе', 'I-operation'), ('дискование', 'I-operation'), ('под', 'O'), ('озимая', 'I-plant'), ('ячмень', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('819', 'B-perOperation'), ('отделение', 'I-department'), ('17', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('97', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('179', 'O'), ('дискование', 'I-operation'), ('кукурузный', 'B-plant'), ('силос', 'I-plant'), ('по', 'O'), ('пу', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('43', 'I-perOperation'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('650', 'B-perOperation'), ('отделение', 'I-department'), ('11', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('33', 'O'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('133', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('148', 'O'), ('выкашивание', 'B-operation'), ('отцовские', 'B-plant'), ('травы', 'I-plant'), ('формирование', 'O'), ('подготовка', 'O'), ('грунта', 'O'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('10', 'I-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('22', 'O'), ('уборка', 'B-operation'), ('сахарная', 'I-plant'), ('свекла', 'I-plant'), ('отделение', 'I-department'), ('12', 'I-department'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('16', 'I-department'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('16', 'I-department'), ('валовый', 'O'), ('473920', 'O'), ('урожайность', 'O'), ('296,2', 'O'), ('диг', 'O'), ('-', 'O'), ('19,19', 'O'), ('озимая', 'I-plant'), ('-', 'O'), ('5,33', 'O')]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>пахота под сахарная свекла
+по пу площадь за день 88 площадь с начала операции 329
+отделение 11 площадь за день 23 площадь с начала операции 60
+отделение 12 площадь за день 34 площадь с начала операции 204
+отделение 16 площадь за день 31 площадь с начала операции 65
+пахота под многолетние травы
+по пу площадь за день 10 площадь с начала операции 438
+отделение 17 площадь за день 10 площадь с начала операции 80
+чизлование под озимая ячмень
+по пу площадь за день 71 площадь с начала операции 528
+отделение 11 площадь за день 71 площадь с начала операции 130
+второе дискование под сахарная свекла
+по пу площадь за день 80 площадь с начала операции 1263
+отделение 12 площадь за день 80 площадь с начала операции 314
+второе дискование под озимая ячмень
+по пу площадь за день 97 площадь с начала операции 819
+отделение 17 площадь за день 97 площадь с начала операции 179
+дискование кукурузный силос
+по пу площадь за день 43 площадь с начала операции 650
+отделение 11 площадь за день 33 площадь с начала операции 133
+отделение 12 площадь за день 10 площадь с начала операции 148
+выкашивание отцовские травы формирование подготовка грунта
+отделение 12 площадь за день 10 площадь с начала операции 22
+уборка сахарная свекла
+отделение 12 площадь за день 16 площадь с начала операции 16
+валовый 473920
+урожайность 296,2
+диг - 19,19
+озимая - 5,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('посев', 'B-operation'), ('кук-площадь', 'B-plant'), ('за', 'O'), ('день', 'O'), ('24', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('252га', 'B-perOperation'), ('24%', 'O'), ('предпосевная', 'B-operation'), ('культура', 'I-operation'), ('под', 'O'), ('кук-площадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('94', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('490га46%', 'B-perOperation'), ('сзроз', 'O'), ('пш-площадь', 'O'), ('за', 'O'), ('день', 'O'), ('103', 'O'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('557га', 'O'), ('25%', 'O'), ('подкормка', 'B-operation'), ('озимая', 'B-plant'), ('рапс-', 'I-plant'), ('152га', 'B-perDay'), (',', 'O'), ('100%,', 'O'), ('подкормка', 'I-operation'), ('овса-97га,', 'O'), ('50%', 'O'), ('довсходовое', 'O'), ('боронование', 'O'), ('подсолнечника-524', 'O'), ('га,', 'O'), ('100%.', 'O')]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>восход
+посев кук-площадь за день 24 площадь с начала операции 252га
+24%
+предпосевная культура
+под кук-площадь за день 94 площадь с начала операции 490га46%
+сзроз пш-площадь за день 103 площадь с начала операции 557га
+25%
+подкормка озимая рапс-
+152га , 100%, подкормка овса-97га, 50%
+довсходовое боронование подсолнечника-524
+га, 100%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[('тск', 'B-department'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('25', 'B-perDay'), ('га/', 'O'), ('с', 'I-department'), ('нарастающим', 'O'), ('765', 'B-perOperation'), ('га', 'O'), ('(', 'O'), ('13%)', 'O'), ('остаток', 'O'), ('5332', 'O'), ('га', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('131га', 'B-perDay'), ('(3%)', 'O'), ('остаток', 'O'), ('4486', 'B-perOperation'), ('га', 'O'), ('осадки', 'O'), ('1мм', 'O')]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>тск
+выравнивание зяби под сою 25 га/ с нарастающим 765 га ( 13%) остаток 5332 га
+выравнивание зяби под кукурузу 131га (3%) остаток 4486 га
+осадки 1мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[('20.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('100', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('1109', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('97%,', 'O'), ('30', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('4', 'O'), ('агрегата.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('47', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('141', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('29', 'O'), ('%,', 'O'), ('остаток', 'O'), ('565', 'O'), ('га.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат', 'O'), ('осадки:', 'O'), ('бригада', 'O'), ('1', 'I-data'), ('воронежская', 'O'), ('-', 'O'), ('6', 'O'), ('мм', 'O')]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>20.11 мир
+пахота зяби под сою 100 га день, 1109 га от начала, 97%, 30 га остаток.
+работало 4 агрегата.
+выравнивание зяби под подсолнечник 47 га день, 141 га от начала, 29 %, остаток 565 га. работал 1 агрегат
+осадки:
+бригада 1 воронежская - 6 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('26.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('862', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('5519', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('274', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('896', 'B-perDay'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('276', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('666', 'B-perOperation'), ('(31%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('1475га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('295', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('2348', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+26.03.25
+2 подкормка озимой пшеницы - площадь за день 862 площадь с начала операции 5519
+предпосевная культивация под сах.свеклу - площадь за день 274 площадь с начала операции 896
+посев сах.свеклы - площадь за день 276 площадь с начала операции 666 (31%) 7ед.
+осталось 1475га
+выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2348</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('посев', 'B-operation'), ('подсолнечника', 'B-plant'), ('день-149га', 'O'), ('всего-351га,67%', 'O'), ('химпрополка', 'B-operation'), ('рапса', 'B-plant'), ('152га,', 'B-perDay'), ('100%', 'O'), ('первая', 'B-operation'), ('культивация', 'I-operation'), ('зябис', 'B-plant'), ('день-180га', 'O'), ('всего-1430га,', 'O'), ('76,2%.', 'O')]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>восход
+посев подсолнечника
+день-149га
+всего-351га,67%
+химпрополка рапса
+152га, 100%
+первая культивация
+зябис день-180га
+всего-1430га, 76,2%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[('27.03.25', 'B-data'), ('мир.', 'B-department'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('53', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('1153/20', 'B-perOperation'), ('-', 'O'), ('98%', 'O'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('50', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('140/447', 'B-perOperation'), ('-', 'O'), ('24%', 'O'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('85', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('702/246', 'B-perOperation'), ('-', 'O'), ('74%', 'O'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('135', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('655/293', 'B-perOperation'), ('-', 'O'), ('69%', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1047', 'B-perDay'), ('площадь', 'O'), ('с', 'I-plant'), ('начала', 'O'), ('операции', 'O'), ('2205/3079', 'O'), ('-', 'O'), ('42%', 'O'), ('на', 'O'), ('севе', 'O'), ('работало', 'O'), ('5', 'I-data'), ('ед', 'I-operation')]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>27.03.25 мир.
+выравнивание зяби под сою площадь за день 53 площадь с начала операции 1153/20 - 98%
+сплошная культивация под сою площадь за день 50 площадь с начала операции 140/447 - 24%
+предпосевная культивация под сахарную свеклу площадь за день 85 площадь с начала операции 702/246 - 74%
+посев сахарной свеклы площадь за день 135 площадь с начала операции 655/293 - 69%
+вторая подкормка озимой пшеницы площадь за день 1047 площадь с начала операции 2205/3079 - 42%
+на севе работало 5 ед</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[('27.03.25г.', 'B-data'), ('сп', 'B-department'), ('коломейцево', 'I-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('-под', 'O'), ('сахарную', 'B-plant'), ('свеклу:', 'I-plant'), ('день', 'O'), ('19га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('314га(100%)', 'B-perOperation'), ('-под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('20га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('20га(10%)', 'B-perOperation'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы:', 'I-plant'), ('день', 'O'), ('30га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('265га(84%)', 'B-perOperation'), ('внесение', 'B-operation'), ('минеральных', 'I-operation'), ('удобрений', 'I-operation'), ('по', 'I-operation'), ('озимой', 'B-plant'), ('пшенице,2', 'I-plant'), ('след:', 'O'), ('день', 'O'), ('139га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('1015га(100%)', 'B-perOperation'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('51га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('145га', 'B-perOperation'), ('(71%)', 'O')]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>27.03.25г.
+сп коломейцево
+предпосевная культивация  
+ -под сахарную свеклу: 
+   день 19га
+  от начала 314га(100%)
+  -под подсолнечник
+    день 20га
+    от начала 20га(10%)
+посев сахарной свеклы: 
+день 30га
+от начала 265га(84%)
+ внесение минеральных удобрений по озимой пшенице,2 след: 
+день 139га
+от начала 1015га(100%)
+сплошная культивация под сою:
+  день 51га 
+  от начала 145га (71%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('27.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('834', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('6353', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('306', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1202', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('278', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('944', 'B-perOperation'), ('(44%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('1197га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('295', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('2643', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+27.03.25
+2 подкормка озимой пшеницы - площадь за день 834 площадь с начала операции 6353
+предпосевная культивация под сах.свеклу - площадь за день 306 площадь с начала операции 1202
+посев сах.свеклы - площадь за день 278 площадь с начала операции 944 (44%) 7ед.
+осталось 1197га
+выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2643</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[('рассвет', 'B-department'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1139', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('8218/73%', 'B-perOperation'), ('культура.', 'O'), ('сахарная', 'I-plant'), ('свёкла', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1225', 'O'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('9228/82%', 'O'), ('2-подкормка', 'B-operation'), ('озимая', 'B-plant'), ('пшеницыплощадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('1898', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('30547/95%', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>рассвет
+посев сахарная свеклы площадь за день 1139 площадь с начала операции 8218/73%
+культура. сахарная свёкла площадь за день 1225 площадь с начала операции 9228/82%
+2-подкормка озимая пшеницыплощадь за день 1898 площадь с начала операции 30547/95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('посев', 'B-operation'), ('подсолнечника', 'B-plant'), ('день-28', 'O'), ('всего-524га,', 'O'), ('100%', 'O')]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>восход
+посев подсолнечника
+день-28
+всего-524га, 100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[('колхоз', 'B-department'), ('прогресс:', 'I-department'), ('химпрополка', 'B-operation'), ('оз.пшеницы', 'B-plant'), ('за', 'O'), ('день', 'O'), ('185', 'B-perDay'), ('га', 'O'), (',', 'O'), ('всего', 'O'), ('185', 'I-perDay'), ('га', 'O'), ('(13%),', 'O'), ('остаток', 'O'), ('1212', 'O'), ('га', 'O')]</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>колхоз прогресс: химпрополка оз.пшеницы за день 185 га , всего 185 га (13%), остаток 1212 га</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[('28.03.25', 'B-data'), ('мир.', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('178', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('880/68', 'B-perOperation'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('150', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('805/143', 'B-perOperation'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('995', 'B-perDay'), ('площадь', 'O'), ('с', 'I-operation'), ('начала', 'O'), ('операции', 'O'), ('3200/2084', 'B-perOperation'), ('на', 'I-operation'), ('севе', 'O'), ('работало', 'O'), ('5', 'I-data'), ('ед.', 'O')]</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>28.03.25 мир.
+предпосевная культивация под сахарную свеклу площадь за день 178 площадь с начала операции 880/68
+посев сахарной свеклы площадь за день 150 площадь с начала операции 805/143
+вторая подкормка озимой пшеницы площадь за день 995 площадь с начала операции 3200/2084
+на севе работало 5 ед.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[('28.03.25г.', 'B-data'), ('сп', 'B-department'), ('коломейцево', 'I-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('-под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('40га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('60га(29%)', 'B-perOperation'), ('посев', 'I-operation'), ('сахарной', 'B-plant'), ('свеклы:', 'I-plant'), ('день', 'O'), ('30га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('295га(94%)', 'B-perOperation'), ('посев', 'I-operation'), ('подсолнечника', 'B-plant'), ('день', 'O'), ('25га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('25га(12%)', 'B-perOperation'), ('сплошная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('55га', 'B-perDay'), ('от', 'O'), ('начала', 'O'), ('200га', 'B-perOperation'), ('(80%)', 'O')]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>28.03.25г.
+сп коломейцево
+предпосевная культивация  
+  -под подсолнечник
+    день 40га
+    от начала 60га(29%)
+посев сахарной свеклы: 
+день 30га
+от начала 295га(94%)
+посев подсолнечника 
+  день 25га
+  от начала 25га(12%)
+сплошная культивация под сою:
+  день 55га 
+  от начала 200га (80%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('28.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('622', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('6975', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('426', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1628', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('285', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1229', 'B-perOperation'), ('(57%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('912га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'I-operation'), ('кукурузу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('161', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('2804', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+28.03.25
+2 подкормка озимой пшеницы - площадь за день 622 площадь с начала операции 6975
+предпосевная культивация под сах.свеклу - площадь за день 426 площадь с начала операции 1628
+посев сах.свеклы - площадь за день 285 площадь с начала операции 1229 (57%) 7ед.
+осталось 912га
+выравнивание зяби под кукурузу - площадь за день 161 площадь с начала операции 2804</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[('рассвет', 'B-department'), ('посев', 'B-operation'), ('сахарная', 'B-plant'), ('свеклы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1200', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('9359/83%', 'B-perOperation'), ('культура.', 'O'), ('сахарная', 'I-plant'), ('свёкла', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('1014', 'O'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('10241/91%', 'O'), ('2-подкормка', 'B-operation'), ('озимая', 'B-plant'), ('пшеницыплощадь', 'I-plant'), ('за', 'O'), ('день', 'O'), ('1753', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('31924/99%', 'B-perOperation'), ('герб.', 'B-operation'), ('обработка', 'I-operation'), ('озимая', 'I-plant'), ('пшеницы', 'I-plant'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('643', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('643/2%', 'B-perOperation'), ('герб.', 'I-operation'), ('почвен.', 'B-operation'), ('сахарная', 'I-plant'), ('свёкла', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('100', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('100га', 'B-perOperation')]</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>рассвет
+посев сахарная свеклы площадь за день 1200 площадь с начала операции 9359/83%
+культура. сахарная свёкла площадь за день 1014 площадь с начала операции 10241/91%
+2-подкормка озимая пшеницыплощадь за день 1753 площадь с начала операции 31924/99%
+герб. обработка озимая пшеницы площадь за день 643 площадь с начала операции 643/2%
+герб. почвен. сахарная свёкла площадь за день 100 площадь с начала операции 100га</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[('восход', 'B-department'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'O'), ('кук-219га,', 'B-plant'), ('21%', 'O'), ('посев', 'I-operation'), ('кук-21га,', 'O'), ('2%', 'O'), ('вторая', 'B-operation'), ('подкормка', 'I-operation'), ('озимая', 'B-plant'), ('пшеница', 'I-plant'), ('день-474га,', 'O'), ('всего-692,31,5%', 'O'), ('1-я', 'B-operation'), ('срадство', 'I-operation'), ('защиты', 'I-operation'), ('растений', 'I-operation'), ('по', 'I-operation'), ('озимая', 'I-plant'), ('пшеница', 'I-plant'), ('136га,', 'B-perDay'), ('6%', 'O'), ('предпосевное', 'B-operation'), ('внесение', 'I-operation'), ('под', 'O'), ('посев', 'I-operation'), ('кукурузный', 'B-plant'), ('ам', 'O'), ('селитра-114га', 'O'), (',86%.', 'O'), ('до', 'O'), ('всходовое', 'O'), ('боронование', 'O'), ('подсолн-105га,', 'O'), ('20%', 'O')]</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>восход
+предпосевная культивация под
+кук-219га, 21%
+посев кук-21га, 2%
+вторая подкормка озимая пшеница день-474га, всего-692,31,5%
+1-я срадство защиты растений по озимая пшеница
+136га, 6%
+предпосевное внесение  под
+посев кукурузный ам селитра-114га
+,86%. до всходовое
+боронование подсолн-105га, 20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[('ао', 'B-department'), ('кропоткинское', 'I-department'), ('29.03.25', 'B-data'), ('2', 'I-data'), ('подкормка', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('279', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('7254', 'B-perOperation'), ('предпосевная', 'B-operation'), ('культивация', 'I-operation'), ('под', 'I-operation'), ('сах.свеклу', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('241', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1869', 'B-perOperation'), ('посев', 'I-operation'), ('сах.свеклы', 'B-plant'), ('-', 'O'), ('площадь', 'O'), ('за', 'O'), ('день', 'O'), ('336', 'B-perDay'), ('площадь', 'O'), ('с', 'I-department'), ('начала', 'O'), ('операции', 'O'), ('1565', 'B-perOperation'), ('(73%)', 'O'), ('7ед.', 'O'), ('осталось', 'O'), ('576га', 'O')]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+29.03.25
+2 подкормка озимой пшеницы - площадь за день 279 площадь с начала операции 7254
+предпосевная культивация под сах.свеклу - площадь за день 241 площадь с начала операции 1869
+посев сах.свеклы - площадь за день 336 площадь с начала операции 1565 (73%) 7ед.
+осталось 576га</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[('полевые', 'O'), ('работы', 'O'), ('аор,', 'B-department'), ('13.11.2024.', 'B-data'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'O'), ('зерно:', 'O'), ('день', 'O'), ('-', 'O'), ('86', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('3905', 'B-perOperation'), ('га', 'O'), ('(95%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('192', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('260', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('6509', 'B-perOperation'), ('га', 'O'), ('(75%)', 'O'), ('остаток-', 'O'), ('2169', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('кукурузу', 'I-plant'), ('на', 'O'), ('силос:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('156', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('1657', 'B-perOperation'), ('га(54%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('1429', 'O'), ('га', 'O'), ('чизелевание', 'B-operation'), ('под', 'O'), ('сою:', 'I-plant'), ('день', 'O'), ('-54', 'O'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('768', 'B-perOperation'), ('га', 'O'), ('остаток', 'O'), ('от', 'O'), ('плана', 'O'), ('-', 'O'), ('38', 'O'), ('га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу:', 'I-plant'), ('день', 'O'), ('-', 'O'), ('312', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-7498', 'O'), ('га', 'O'), ('(67%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('3752', 'O'), ('га', 'O'), ('2', 'I-data'), ('след', 'B-operation'), ('выравнивания', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах.свеклу:', 'B-plant'), ('день-', 'O'), ('101', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('425', 'B-perOperation'), ('га', 'O'), ('(4%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('10825', 'O'), ('га', 'O'), ('затравка', 'B-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('мн.травам:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('88', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-965', 'O'), ('га', 'O'), ('(55%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('524', 'O'), ('га', 'O'), ('посев', 'B-operation'), ('озимой', 'B-plant'), ('пшеницы', 'I-plant'), ('(товарной):', 'O'), ('день', 'O'), ('-', 'O'), ('85', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('28416', 'B-perOperation'), ('га', 'O'), ('(100%)', 'O'), ('посев', 'I-operation'), ('озимых', 'O'), ('зерновых', 'O'), ('по', 'O'), ('аор', 'I-department'), ('завершен.', 'O')]</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>полевые работы аор, 13.11.2024.
+пахота под кукурузу на зерно:
+день - 86 га 
+от начала- 3905 га (95%)
+остаток - 192 га
+пахота под сою:
+день - 260 га 
+от начала - 6509 га (75%)
+остаток- 2169 га 
+пахота под кукурузу на силос:
+день - 156 га 
+от начала - 1657 га(54%)
+остаток - 1429 га 
+чизелевание под сою:
+день -54 га 
+от начала - 768 га
+остаток от плана - 38 га 
+выравнивание зяби под сахарную свеклу:
+день - 312 га 
+от начала-7498 га (67%)
+остаток - 3752 га
+2 след выравнивания зяби под сах.свеклу:
+день- 101 га 
+от начала- 425 га (4%)
+остаток - 10825 га 
+затравка мышевидных грызунов по мн.травам:
+день - 88 га 
+от начала -965 га (55%)
+остаток - 524 га
+посев озимой пшеницы (товарной):
+день - 85 га 
+от начала - 28416 га (100%)
+посев озимых зерновых по аор завершен.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[('14.11', 'B-data'), ('мир', 'B-department'), ('пахота', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('кукурузу', 'B-plant'), ('57', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('562', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('83%,', 'O'), ('110', 'O'), ('га', 'O'), ('остаток.', 'O'), ('пахота', 'I-operation'), ('зяби', 'O'), ('под', 'O'), ('сою', 'B-plant'), ('60', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('799', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('70%,', 'O'), ('340', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работало', 'O'), ('5', 'I-perDay'), ('агрегатов.', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'O'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('130', 'B-perDay'), ('га', 'O'), ('день,', 'O'), ('874', 'B-perOperation'), ('га', 'O'), ('от', 'I-operation'), ('начала,', 'O'), ('92', 'O'), ('%,', 'O'), ('78', 'O'), ('га', 'O'), ('остаток.', 'O'), ('работал', 'O'), ('1', 'I-data'), ('агрегат.', 'O')]</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>14.11 мир
+пахота зяби под кукурузу 57 га день, 562 га от начала, 83%, 110 га остаток.
+пахота зяби под сою 60 га день, 799 га от начала, 70%, 340 га остаток.
+работало 5 агрегатов.
+выравнивание зяби под сахарную свёклу 130 га день, 874 га от начала, 92 %, 78 га остаток.
+работал 1 агрегат.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[('14.11.24.', 'B-data'), ('сп', 'B-department'), ('коломейцево', 'I-department'), ('пахота', 'B-operation'), ('под', 'O'), ('сахарная', 'B-plant'), ('свекла', 'I-plant'), ('день', 'O'), ('29га', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('315га(100%)', 'B-perOperation'), ('выравнивание', 'B-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свёклу', 'I-plant'), ('день', 'O'), ('20га', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('125га(39%)', 'B-perOperation'), ('выравнивание', 'I-operation'), ('под', 'O'), ('подсолнечник', 'B-plant'), ('день', 'O'), ('14га', 'B-perDay'), ('от', 'I-operation'), ('начала', 'O'), ('14га', 'I-perDay')]</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>14.11.24.
+сп коломейцево 
+пахота под сахарная свекла
+день 29га
+от начала 315га(100%)
+выравнивание под сахарную свёклу 
+день 20га
+от начала 125га(39%)
+выравнивание под подсолнечник
+день 14га
+от начала 14га</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[('тск', 'B-department'), ('вспашка', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('70', 'B-perDay'), ('га/', 'O'), ('с', 'I-department'), ('нарастающим', 'O'), ('1377', 'B-perOperation'), ('га', 'O'), ('(100%)', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сою', 'B-plant'), ('155', 'B-perDay'), ('га/', 'O'), ('с', 'I-department'), ('нарастающим', 'O'), ('334', 'B-perOperation'), ('га', 'O'), ('(5%)', 'O'), ('остаток', 'O'), ('5763', 'O'), ('га', 'O'), ('осадки', 'O'), ('2', 'O'), ('мм', 'O')]</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>тск
+вспашка под кукурузу 70 га/ с нарастающим 1377 га (100%)
+выравнивание зяби под сою 155 га/ с нарастающим 334 га (5%) остаток 5763 га
+осадки 2 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[('полевые', 'O'), ('работы', 'O'), ('аор,', 'B-department'), ('14.11.2024.', 'B-data'), ('пахота', 'B-operation'), ('под', 'O'), ('кукурузу', 'B-plant'), ('на', 'O'), ('зерно:', 'O'), ('день', 'O'), ('-', 'O'), ('26', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('3931', 'B-perOperation'), ('га', 'O'), ('(96%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('166', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('сою:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('295', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('6804', 'B-perOperation'), ('га', 'O'), ('(79%)', 'O'), ('остаток-', 'O'), ('1774', 'O'), ('га', 'O'), ('пахота', 'I-operation'), ('под', 'O'), ('кукурузу', 'I-plant'), ('на', 'O'), ('силос:', 'O'), ('день', 'O'), ('-', 'O'), ('128', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('1881', 'B-perOperation'), ('га(61%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('1205', 'O'), ('га', 'O'), ('чизелевание', 'B-operation'), ('под', 'O'), ('сою:', 'I-plant'), ('день', 'O'), ('-73', 'O'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('841', 'B-perOperation'), ('га', 'O'), ('выравнивание', 'B-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сахарную', 'B-plant'), ('свеклу:', 'I-plant'), ('день', 'O'), ('-', 'O'), ('384', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-7882', 'O'), ('га', 'O'), ('(70%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('3368', 'O'), ('га', 'O'), ('выравнивание', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('подсолнечник:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('50', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-', 'O'), ('1260', 'B-perOperation'), ('га', 'O'), ('(30%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('2923', 'O'), ('га', 'O'), ('2', 'I-data'), ('след', 'B-operation'), ('выравнивания', 'I-operation'), ('зяби', 'I-operation'), ('под', 'O'), ('сах.свеклу:', 'B-plant'), ('день-', 'O'), ('44', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('469', 'B-perOperation'), ('га', 'O'), ('(4%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('10781', 'O'), ('га', 'O'), ('затравка', 'B-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('мн.травам:', 'B-plant'), ('день', 'O'), ('-', 'O'), ('53', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала', 'O'), ('-1018', 'O'), ('га', 'O'), ('(58%)', 'O'), ('остаток', 'O'), ('-', 'O'), ('471', 'O'), ('га', 'O'), ('затравка', 'I-operation'), ('мышевидных', 'I-operation'), ('грызунов', 'I-operation'), ('по', 'O'), ('озимому', 'B-plant'), ('ячменю:', 'I-plant'), ('день', 'O'), ('-', 'O'), ('186', 'B-perDay'), ('га', 'O'), ('от', 'O'), ('начала-', 'O'), ('186', 'I-perDay'), ('га', 'O'), ('остаток', 'O'), ('-', 'O'), ('2086', 'O'), ('га', 'O')]</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>полевые работы аор, 14.11.2024.
+пахота под кукурузу на зерно:
+день - 26 га 
+от начала - 3931 га (96%)
+остаток - 166 га 
+пахота под сою:
+день - 295 га 
+от начала - 6804 га (79%)
+остаток- 1774 га 
+пахота под кукурузу на силос:
+день - 128 га 
+от начала - 1881 га(61%)
+остаток - 1205 га 
+чизелевание под сою:
+день -73 га 
+от начала - 841 га
+выравнивание зяби под сахарную свеклу:
+день - 384 га 
+от начала-7882 га (70%)
+остаток - 3368 га
+выравнивание зяби под подсолнечник:
+день - 50 га 
+от начала - 1260 га (30%)
+остаток - 2923 га 
+2 след выравнивания зяби под сах.свеклу:
+день- 44 га 
+от начала- 469 га (4%)
+остаток - 10781 га 
+затравка мышевидных грызунов по мн.травам:
+день - 53 га 
+от начала -1018 га (58%)
+остаток - 471 га
+затравка мышевидных грызунов по озимому ячменю:
+день - 186 га 
+от начала- 186 га 
+остаток - 2086 га</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
